--- a/wall_average_ht_width.summary.xlsx
+++ b/wall_average_ht_width.summary.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="wall_average_ht_width" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>gas_line</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Slash Wall Heights and Widths</t>
   </si>
   <si>
-    <t>% Slope</t>
-  </si>
-  <si>
     <t>Harvest</t>
   </si>
   <si>
@@ -58,6 +55,15 @@
   </si>
   <si>
     <t>Wall Height at Highest Point (ft)</t>
+  </si>
+  <si>
+    <t>% Slope (inside to outside)</t>
+  </si>
+  <si>
+    <t>% change</t>
+  </si>
+  <si>
+    <t>average annual change</t>
   </si>
 </sst>
 </file>
@@ -566,7 +572,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -593,6 +599,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -915,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G18"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -930,40 +942,43 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1001,7 @@
         <v>-15.123081518729199</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1024,7 @@
         <v>-17.7488726045476</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1047,7 @@
         <v>-15.7567967720466</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1054,238 +1069,371 @@
       <c r="G8" s="4">
         <v>-15.5910702198285</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2017</v>
-      </c>
-      <c r="C9" s="6">
-        <v>38</v>
-      </c>
-      <c r="D9" s="4">
-        <v>25.671052631578899</v>
-      </c>
-      <c r="E9" s="4">
-        <v>8.5684210526315798</v>
-      </c>
-      <c r="F9" s="4">
-        <v>11.935526315789399</v>
-      </c>
-      <c r="G9" s="4">
-        <v>-12.628596139700999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6">
-        <v>2018</v>
-      </c>
-      <c r="C10" s="6">
-        <v>38</v>
-      </c>
-      <c r="D10" s="4">
-        <v>26.302631578947299</v>
-      </c>
-      <c r="E10" s="4">
-        <v>7.9026315789473598</v>
-      </c>
-      <c r="F10" s="4">
-        <v>10.5210526315789</v>
-      </c>
-      <c r="G10" s="4">
-        <v>-11.474640379124899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <f>(E5-E8)/4</f>
+        <v>0.67168949771689501</v>
+      </c>
+      <c r="J8" s="1">
+        <f>(F5-F8)/4</f>
+        <v>1.0545662100456603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11">
+        <f>(E8-E5)/E5*100</f>
+        <v>-29.150359177607132</v>
+      </c>
+      <c r="F9" s="11">
+        <f>(F8-F5)/F5*100</f>
+        <v>-31.816772860340929</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="6">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C11" s="6">
         <v>38</v>
       </c>
       <c r="D11" s="4">
-        <v>24.75</v>
+        <v>25.671052631578899</v>
       </c>
       <c r="E11" s="4">
-        <v>7.38947368421052</v>
+        <v>8.5684210526315798</v>
       </c>
       <c r="F11" s="4">
-        <v>9.8631578947368403</v>
+        <v>11.935526315789399</v>
       </c>
       <c r="G11" s="4">
-        <v>-13.918226305481999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-12.628596139700999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="6">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C12" s="6">
         <v>38</v>
       </c>
       <c r="D12" s="4">
+        <v>26.302631578947299</v>
+      </c>
+      <c r="E12" s="4">
+        <v>7.9026315789473598</v>
+      </c>
+      <c r="F12" s="4">
+        <v>10.5210526315789</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-11.474640379124899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C13" s="6">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4">
+        <v>24.75</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7.38947368421052</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9.8631578947368403</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-13.918226305481999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C14" s="6">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4">
         <v>23.986842105263101</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E14" s="4">
         <v>6.6447368421052602</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F14" s="4">
         <v>8.9736842105263097</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G14" s="4">
         <v>-14.3180282376418</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="I14" s="1">
+        <f>(E11-E14)/4</f>
+        <v>0.48092105263157992</v>
+      </c>
+      <c r="J14" s="1">
+        <f>(F11-F14)/4</f>
+        <v>0.74046052631577242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="4">
+        <f>(E14-E11)/E11*100</f>
+        <v>-22.450859950859993</v>
+      </c>
+      <c r="F15" s="4">
+        <f>(F14-F11)/F11*100</f>
+        <v>-24.815345606878648</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B17" s="6">
         <v>2018</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C17" s="6">
         <v>48</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D17" s="4">
         <v>24.962499999999999</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E17" s="4">
         <v>10.3666666666666</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F17" s="4">
         <v>12.129166666666601</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G17" s="4">
         <v>-5.9687726878063501</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B18" s="6">
         <v>2019</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C18" s="6">
         <v>48</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D18" s="4">
         <v>23.59375</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E18" s="4">
         <v>8.5041666666666593</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F18" s="4">
         <v>11.472916666666601</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G18" s="4">
         <v>-7.8323698428010298</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B19" s="6">
         <v>2020</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C19" s="6">
         <v>48</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D19" s="4">
         <v>22.1458333333333</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E19" s="4">
         <v>6.96041666666666</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F19" s="4">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G19" s="4">
         <v>-7.7853776614915597</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="4">
+        <f>(E19-E17)/E17*100</f>
+        <v>-32.857717041800271</v>
+      </c>
+      <c r="F20" s="4">
+        <f>(F19-F17)/F17*100</f>
+        <v>-20.027481964960064</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="I20" s="1">
+        <f>(E17-E19)/3</f>
+        <v>1.1354166666666465</v>
+      </c>
+      <c r="J20" s="1">
+        <f>(F17-F19)/3</f>
+        <v>0.80972222222220047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B22" s="6">
         <v>2018</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C22" s="6">
         <v>30</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D22" s="4">
         <v>21.95</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E22" s="4">
         <v>7.7033333333333296</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F22" s="4">
         <v>11.6133333333333</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G22" s="4">
         <v>-1.5826584651782201</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B23" s="6">
         <v>2019</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C23" s="6">
         <v>30</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D23" s="4">
         <v>22.1666666666666</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E23" s="4">
         <v>7.26</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F23" s="4">
         <v>10.76</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G23" s="4">
         <v>-5.1554632344104103</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B24" s="6">
         <v>2020</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C24" s="6">
         <v>30</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D24" s="4">
         <v>20.350000000000001</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E24" s="4">
         <v>7.01</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F24" s="4">
         <v>9.6266666666666598</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G24" s="4">
         <v>-5.0806251541572003</v>
       </c>
     </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="4">
+        <f>(E24-E22)/E22*100</f>
+        <v>-9.0004327131111665</v>
+      </c>
+      <c r="F25" s="4">
+        <f>(F24-F22)/F22*100</f>
+        <v>-17.106773823191553</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="I25" s="1">
+        <f>(E22-E24)/3</f>
+        <v>0.23111111111110993</v>
+      </c>
+      <c r="J25" s="1">
+        <f>(F22-F24)/3</f>
+        <v>0.66222222222221327</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A25:D25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/wall_average_ht_width.summary.xlsx
+++ b/wall_average_ht_width.summary.xlsx
@@ -9,17 +9,48 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="wall_average_ht_width" sheetId="1" r:id="rId1"/>
+    <sheet name="metric" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+  <si>
+    <t>harvest</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>width_m_avg</t>
+  </si>
+  <si>
+    <t>ht_two_m_avg</t>
+  </si>
+  <si>
+    <t>ht_high_m_avg</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>ht_at_two_inch</t>
+  </si>
+  <si>
+    <t>ht_highest</t>
+  </si>
+  <si>
+    <t>slope_pct</t>
+  </si>
   <si>
     <t>gas_line</t>
   </si>
@@ -33,37 +64,19 @@
     <t>wedge</t>
   </si>
   <si>
-    <t>file: "wall_average_ht_width"  from "wall_dimension_input.Rmd</t>
+    <t>Red Pine</t>
   </si>
   <si>
-    <t>Slash Wall Heights and Widths</t>
+    <t>Boot</t>
   </si>
   <si>
-    <t>Harvest</t>
+    <t>Wedge</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>two</t>
   </si>
   <si>
-    <t>Number of Sample Points</t>
-  </si>
-  <si>
-    <t>Width (ft)</t>
-  </si>
-  <si>
-    <t>Wall Height at Two Inch Diameter (ft)</t>
-  </si>
-  <si>
-    <t>Wall Height at Highest Point (ft)</t>
-  </si>
-  <si>
-    <t>% Slope (inside to outside)</t>
-  </si>
-  <si>
-    <t>% change</t>
-  </si>
-  <si>
-    <t>average annual change</t>
+    <t>high</t>
   </si>
 </sst>
 </file>
@@ -73,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,13 +221,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -397,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -527,6 +533,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -572,38 +587,34 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -927,514 +938,1068 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="11.85546875" style="3" customWidth="1"/>
-    <col min="5" max="7" width="12.85546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2017</v>
+      </c>
+      <c r="C2">
+        <v>73</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.6053917808219103</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6.0547945205479401</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.0772273972602702</v>
+      </c>
+      <c r="G2" s="1">
+        <v>21.671232876712299</v>
+      </c>
+      <c r="H2" s="10">
+        <v>9.2168949771689501</v>
+      </c>
+      <c r="I2" s="10">
+        <v>13.257990867579901</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-15.123081518729199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2018</v>
+      </c>
+      <c r="C3">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.6158301369863004</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5.1780821917808204</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.45050849315068</v>
+      </c>
+      <c r="G3" s="1">
+        <v>21.7054794520547</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8.5034246575342394</v>
+      </c>
+      <c r="I3" s="1">
+        <v>11.3650684931506</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-17.113617448744499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
+      </c>
+      <c r="C4">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.5252252054794502</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.1712328767123203</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.1795287671232799</v>
+      </c>
+      <c r="G4" s="1">
+        <v>21.408219178082099</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7.3164383561643804</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10.295890410958901</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-15.7567967720466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>2020</v>
+      </c>
+      <c r="C5">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.2546630136986296</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.5136986301369801</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.8358980821917801</v>
+      </c>
+      <c r="G5" s="1">
+        <v>20.520547945205401</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6.5301369863013701</v>
+      </c>
+      <c r="I5" s="1">
+        <v>9.0397260273972595</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-15.5910702198285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2017</v>
+      </c>
+      <c r="C6">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.8245368421052603</v>
+      </c>
+      <c r="E6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="F6" s="1">
+        <v>2.5502936842105202</v>
+      </c>
+      <c r="G6" s="1">
+        <v>25.671052631578899</v>
+      </c>
+      <c r="H6" s="10">
+        <v>8.5684210526315798</v>
+      </c>
+      <c r="I6" s="10">
+        <v>11.935526315789399</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-12.628596139700999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="B7">
+        <v>2018</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8.0170421052631493</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.5526315789473601</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.2098</v>
+      </c>
+      <c r="G7" s="1">
+        <v>26.302631578947299</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8.1131578947368403</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10.810526315789399</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-12.0761441385234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2019</v>
+      </c>
+      <c r="C8">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.5438000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.6842105263157801</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.87692631578947</v>
+      </c>
+      <c r="G8" s="1">
+        <v>24.75</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7.38947368421052</v>
+      </c>
+      <c r="I8" s="1">
+        <v>9.8631578947368403</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-13.181384200218799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>2020</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7.3111894736842098</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.0394736842105199</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.6362947368420999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>23.986842105263101</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6.6447368421052602</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8.9736842105263097</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-13.461235091987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2017</v>
-      </c>
-      <c r="C5" s="6">
-        <v>73</v>
-      </c>
-      <c r="D5" s="4">
-        <v>21.671232876712299</v>
-      </c>
-      <c r="E5" s="4">
-        <v>9.2168949771689501</v>
-      </c>
-      <c r="F5" s="4">
-        <v>13.257990867579901</v>
-      </c>
-      <c r="G5" s="4">
-        <v>-15.123081518729199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="B10">
         <v>2018</v>
       </c>
-      <c r="C6" s="6">
-        <v>73</v>
-      </c>
-      <c r="D6" s="4">
-        <v>21.5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>8.5801369863013601</v>
-      </c>
-      <c r="F6" s="4">
-        <v>11.441780821917799</v>
-      </c>
-      <c r="G6" s="4">
-        <v>-17.7488726045476</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7.6085700000000003</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7.6645833333333302</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.254375</v>
+      </c>
+      <c r="G10" s="1">
+        <v>24.962499999999999</v>
+      </c>
+      <c r="H10" s="10">
+        <v>9.11666666666666</v>
+      </c>
+      <c r="I10" s="10">
+        <v>12.129166666666601</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-5.9687726878063501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
         <v>2019</v>
       </c>
-      <c r="C7" s="6">
-        <v>73</v>
-      </c>
-      <c r="D7" s="4">
-        <v>21.408219178082099</v>
-      </c>
-      <c r="E7" s="4">
-        <v>7.3164383561643804</v>
-      </c>
-      <c r="F7" s="4">
-        <v>10.295890410958901</v>
-      </c>
-      <c r="G7" s="4">
-        <v>-15.7567967720466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="C11">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7.1913749999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6.5833333333333304</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.9368750000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>23.59375</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8.4208333333333307</v>
+      </c>
+      <c r="I11" s="1">
+        <v>11.472916666666601</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-7.8323698428010298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
         <v>2020</v>
       </c>
-      <c r="C8" s="6">
-        <v>73</v>
-      </c>
-      <c r="D8" s="4">
-        <v>20.520547945205401</v>
-      </c>
-      <c r="E8" s="4">
-        <v>6.5301369863013701</v>
-      </c>
-      <c r="F8" s="4">
-        <v>9.0397260273972595</v>
-      </c>
-      <c r="G8" s="4">
-        <v>-15.5910702198285</v>
-      </c>
-      <c r="I8" s="1">
-        <f>(E5-E8)/4</f>
-        <v>0.67168949771689501</v>
-      </c>
-      <c r="J8" s="1">
-        <f>(F5-F8)/4</f>
-        <v>1.0545662100456603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="C12">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6.7500499999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.435225</v>
+      </c>
+      <c r="G12" s="1">
+        <v>22.1458333333333</v>
+      </c>
+      <c r="H12" s="1">
+        <v>6.96041666666666</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-7.7853776614915597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2021</v>
+      </c>
+      <c r="C13">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6.2579250000000002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.4166666666666599</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.060575</v>
+      </c>
+      <c r="G13" s="1">
+        <v>20.53125</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5.8687500000000004</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8.2125000000000004</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-7.0287965058855297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11">
-        <f>(E8-E5)/E5*100</f>
-        <v>-29.150359177607132</v>
-      </c>
-      <c r="F9" s="11">
-        <f>(F8-F5)/F5*100</f>
-        <v>-31.816772860340929</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6">
-        <v>2017</v>
-      </c>
-      <c r="C11" s="6">
-        <v>38</v>
-      </c>
-      <c r="D11" s="4">
-        <v>25.671052631578899</v>
-      </c>
-      <c r="E11" s="4">
-        <v>8.5684210526315798</v>
-      </c>
-      <c r="F11" s="4">
-        <v>11.935526315789399</v>
-      </c>
-      <c r="G11" s="4">
-        <v>-12.628596139700999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="B14">
         <v>2018</v>
       </c>
-      <c r="C12" s="6">
-        <v>38</v>
-      </c>
-      <c r="D12" s="4">
-        <v>26.302631578947299</v>
-      </c>
-      <c r="E12" s="4">
-        <v>7.9026315789473598</v>
-      </c>
-      <c r="F12" s="4">
-        <v>10.5210526315789</v>
-      </c>
-      <c r="G12" s="4">
-        <v>-11.474640379124899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6.6903600000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.2066666666666599</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3.38836</v>
+      </c>
+      <c r="G14" s="1">
+        <v>21.95</v>
+      </c>
+      <c r="H14" s="10">
+        <v>8.0033333333333303</v>
+      </c>
+      <c r="I14" s="10">
+        <v>11.9133333333333</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-3.1211200036397599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <v>2019</v>
       </c>
-      <c r="C13" s="6">
-        <v>38</v>
-      </c>
-      <c r="D13" s="4">
-        <v>24.75</v>
-      </c>
-      <c r="E13" s="4">
-        <v>7.38947368421052</v>
-      </c>
-      <c r="F13" s="4">
-        <v>9.8631578947368403</v>
-      </c>
-      <c r="G13" s="4">
-        <v>-13.918226305481999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6.7564000000000002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6.0666666666666602</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.9159199999999998</v>
+      </c>
+      <c r="G15" s="1">
+        <v>22.1666666666666</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10.76</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-5.1554632344104103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
         <v>2020</v>
       </c>
-      <c r="C14" s="6">
-        <v>38</v>
-      </c>
-      <c r="D14" s="4">
-        <v>23.986842105263101</v>
-      </c>
-      <c r="E14" s="4">
-        <v>6.6447368421052602</v>
-      </c>
-      <c r="F14" s="4">
-        <v>8.9736842105263097</v>
-      </c>
-      <c r="G14" s="4">
-        <v>-14.3180282376418</v>
-      </c>
-      <c r="I14" s="1">
-        <f>(E11-E14)/4</f>
-        <v>0.48092105263157992</v>
-      </c>
-      <c r="J14" s="1">
-        <f>(F11-F14)/4</f>
-        <v>0.74046052631577242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6.20268</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.9666666666666597</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.6162000000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="H16" s="1">
+        <v>7.01</v>
+      </c>
+      <c r="I16" s="1">
+        <v>9.6266666666666598</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-5.0806251541572003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="4">
-        <f>(E14-E11)/E11*100</f>
-        <v>-22.450859950859993</v>
-      </c>
-      <c r="F15" s="4">
-        <f>(F14-F11)/F11*100</f>
-        <v>-24.815345606878648</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="6">
-        <v>2018</v>
-      </c>
-      <c r="C17" s="6">
-        <v>48</v>
-      </c>
-      <c r="D17" s="4">
-        <v>24.962499999999999</v>
-      </c>
-      <c r="E17" s="4">
-        <v>10.3666666666666</v>
-      </c>
-      <c r="F17" s="4">
-        <v>12.129166666666601</v>
-      </c>
-      <c r="G17" s="4">
-        <v>-5.9687726878063501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="6">
-        <v>2019</v>
-      </c>
-      <c r="C18" s="6">
-        <v>48</v>
-      </c>
-      <c r="D18" s="4">
-        <v>23.59375</v>
-      </c>
-      <c r="E18" s="4">
-        <v>8.5041666666666593</v>
-      </c>
-      <c r="F18" s="4">
-        <v>11.472916666666601</v>
-      </c>
-      <c r="G18" s="4">
-        <v>-7.8323698428010298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="6">
-        <v>2020</v>
-      </c>
-      <c r="C19" s="6">
-        <v>48</v>
-      </c>
-      <c r="D19" s="4">
-        <v>22.1458333333333</v>
-      </c>
-      <c r="E19" s="4">
-        <v>6.96041666666666</v>
-      </c>
-      <c r="F19" s="4">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="G19" s="4">
-        <v>-7.7853776614915597</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="4">
-        <f>(E19-E17)/E17*100</f>
-        <v>-32.857717041800271</v>
-      </c>
-      <c r="F20" s="4">
-        <f>(F19-F17)/F17*100</f>
-        <v>-20.027481964960064</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="I20" s="1">
-        <f>(E17-E19)/3</f>
-        <v>1.1354166666666465</v>
-      </c>
-      <c r="J20" s="1">
-        <f>(F17-F19)/3</f>
-        <v>0.80972222222220047</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="6">
-        <v>2018</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="B17">
+        <v>2021</v>
+      </c>
+      <c r="C17">
         <v>30</v>
       </c>
-      <c r="D22" s="4">
-        <v>21.95</v>
-      </c>
-      <c r="E22" s="4">
-        <v>7.7033333333333296</v>
-      </c>
-      <c r="F22" s="4">
-        <v>11.6133333333333</v>
-      </c>
-      <c r="G22" s="4">
-        <v>-1.5826584651782201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="6">
-        <v>2019</v>
-      </c>
-      <c r="C23" s="6">
-        <v>30</v>
-      </c>
-      <c r="D23" s="4">
-        <v>22.1666666666666</v>
-      </c>
-      <c r="E23" s="4">
-        <v>7.26</v>
-      </c>
-      <c r="F23" s="4">
-        <v>10.76</v>
-      </c>
-      <c r="G23" s="4">
-        <v>-5.1554632344104103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="6">
-        <v>2020</v>
-      </c>
-      <c r="C24" s="6">
-        <v>30</v>
-      </c>
-      <c r="D24" s="4">
-        <v>20.350000000000001</v>
-      </c>
-      <c r="E24" s="4">
-        <v>7.01</v>
-      </c>
-      <c r="F24" s="4">
-        <v>9.6266666666666598</v>
-      </c>
-      <c r="G24" s="4">
-        <v>-5.0806251541572003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="4">
-        <f>(E24-E22)/E22*100</f>
-        <v>-9.0004327131111665</v>
-      </c>
-      <c r="F25" s="4">
-        <f>(F24-F22)/F22*100</f>
-        <v>-17.106773823191553</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="I25" s="1">
-        <f>(E22-E24)/3</f>
-        <v>0.23111111111110993</v>
-      </c>
-      <c r="J25" s="1">
-        <f>(F22-F24)/3</f>
-        <v>0.66222222222221327</v>
+      <c r="D17" s="1">
+        <v>5.9181999999999997</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="G17" s="1">
+        <v>19.4166666666666</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6.1666666666666599</v>
+      </c>
+      <c r="I17" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-5.8260511082061699</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A25:D25"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="6" width="14.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C2" s="6">
+        <v>73</v>
+      </c>
+      <c r="D2" s="7">
+        <v>6.6053917808219103</v>
+      </c>
+      <c r="E2" s="7">
+        <v>6.0547945205479401</v>
+      </c>
+      <c r="F2" s="7">
+        <v>3.0772273972602702</v>
+      </c>
+      <c r="G2" s="8">
+        <v>-15.123081518729199</v>
+      </c>
+      <c r="I2" s="4">
+        <f>((E2-E5)/3)*100</f>
+        <v>84.703196347031991</v>
+      </c>
+      <c r="J2" s="4">
+        <f>((F2-F5)/3)*100</f>
+        <v>41.377643835616333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="6">
+        <v>73</v>
+      </c>
+      <c r="D3" s="7">
+        <v>6.6158301369863004</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5.1780821917808204</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2.45050849315068</v>
+      </c>
+      <c r="G3" s="8">
+        <v>-17.113617448744499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C4" s="6">
+        <v>73</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6.5252252054794502</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4.1712328767123203</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2.1795287671232799</v>
+      </c>
+      <c r="G4" s="8">
+        <v>-15.7567967720466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="6">
+        <v>73</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6.2546630136986296</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3.5136986301369801</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1.8358980821917801</v>
+      </c>
+      <c r="G5" s="8">
+        <v>-15.5910702198285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <f>(E5-E2) / E2 * 100</f>
+        <v>-41.968325791855257</v>
+      </c>
+      <c r="F6" s="7">
+        <f>(F5-F2) / F2 * 100</f>
+        <v>-40.33921302578014</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C7" s="6">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7.8245368421052603</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2.5502936842105202</v>
+      </c>
+      <c r="G7" s="8">
+        <v>-12.628596139700999</v>
+      </c>
+      <c r="I7" s="4">
+        <f>((E7-E10)/3)*100</f>
+        <v>65.350877192982665</v>
+      </c>
+      <c r="J7" s="4">
+        <f>((F7-F10)/3)*100</f>
+        <v>30.466631578947339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C8" s="6">
+        <v>38</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8.0170421052631493</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.5526315789473601</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2.2098</v>
+      </c>
+      <c r="G8" s="8">
+        <v>-12.0761441385234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C9" s="6">
+        <v>38</v>
+      </c>
+      <c r="D9" s="7">
+        <v>7.5438000000000001</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3.6842105263157801</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.87692631578947</v>
+      </c>
+      <c r="G9" s="8">
+        <v>-13.181384200218799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="6">
+        <v>38</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7.3111894736842098</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3.0394736842105199</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1.6362947368420999</v>
+      </c>
+      <c r="G10" s="8">
+        <v>-13.461235091987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <f>(E10-E7) / E7 * 100</f>
+        <v>-39.2105263157896</v>
+      </c>
+      <c r="F11" s="7">
+        <f>(F10-F7) / F7 * 100</f>
+        <v>-35.838968391256543</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C12" s="6">
+        <v>48</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7.6085700000000003</v>
+      </c>
+      <c r="E12" s="7">
+        <v>7.6645833333333302</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3.254375</v>
+      </c>
+      <c r="G12" s="8">
+        <v>-5.9687726878063501</v>
+      </c>
+      <c r="I12" s="4">
+        <f>((E12-E15)/3)*100</f>
+        <v>108.263888888889</v>
+      </c>
+      <c r="J12" s="4">
+        <f>((F12-F15)/3)*100</f>
+        <v>39.793333333333329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C13" s="6">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7.1913749999999999</v>
+      </c>
+      <c r="E13" s="7">
+        <v>6.5833333333333304</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2.9368750000000001</v>
+      </c>
+      <c r="G13" s="8">
+        <v>-7.8323698428010298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C14" s="6">
+        <v>48</v>
+      </c>
+      <c r="D14" s="7">
+        <v>6.7500499999999999</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5.25</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2.435225</v>
+      </c>
+      <c r="G14" s="8">
+        <v>-7.7853776614915597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="6">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6.2579250000000002</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4.4166666666666599</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2.060575</v>
+      </c>
+      <c r="G15" s="8">
+        <v>-7.0287965058855297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
+        <f>(E15-E12) / E12 * 100</f>
+        <v>-42.375645555857631</v>
+      </c>
+      <c r="F16" s="7">
+        <f>(F15-F12) / F12 * 100</f>
+        <v>-36.68292682926829</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C17" s="6">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6.6903600000000001</v>
+      </c>
+      <c r="E17" s="7">
+        <v>7.2066666666666599</v>
+      </c>
+      <c r="F17" s="7">
+        <v>3.38836</v>
+      </c>
+      <c r="G17" s="8">
+        <v>-3.1211200036397599</v>
+      </c>
+      <c r="I17" s="4">
+        <f>((E17-E20)/3)*100</f>
+        <v>73.55555555555533</v>
+      </c>
+      <c r="J17" s="4">
+        <f>((F17-F20)/3)*100</f>
+        <v>40.978666666666676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C18" s="6">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6.7564000000000002</v>
+      </c>
+      <c r="E18" s="7">
+        <v>6.0666666666666602</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2.9159199999999998</v>
+      </c>
+      <c r="G18" s="8">
+        <v>-5.1554632344104103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C19" s="6">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6.20268</v>
+      </c>
+      <c r="E19" s="7">
+        <v>5.9666666666666597</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2.6162000000000001</v>
+      </c>
+      <c r="G19" s="8">
+        <v>-5.0806251541572003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C20" s="6">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5.9181999999999997</v>
+      </c>
+      <c r="E20" s="7">
+        <v>5</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="G20" s="8">
+        <v>-5.8260511082061699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E21" s="3">
+        <f>(E20-E17) / E17 * 100</f>
+        <v>-30.619796484736288</v>
+      </c>
+      <c r="F21" s="3">
+        <f>(F20-F17) / F17 * 100</f>
+        <v>-36.281859070464776</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wall_average_ht_width.summary.xlsx
+++ b/wall_average_ht_width.summary.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wall_average_ht_width" sheetId="1" r:id="rId1"/>
     <sheet name="metric" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>harvest</t>
   </si>
@@ -34,19 +34,7 @@
     <t>width_m_avg</t>
   </si>
   <si>
-    <t>ht_two_m_avg</t>
-  </si>
-  <si>
-    <t>ht_high_m_avg</t>
-  </si>
-  <si>
     <t>width</t>
-  </si>
-  <si>
-    <t>ht_at_two_inch</t>
-  </si>
-  <si>
-    <t>ht_highest</t>
   </si>
   <si>
     <t>slope_pct</t>
@@ -64,19 +52,40 @@
     <t>wedge</t>
   </si>
   <si>
-    <t>Red Pine</t>
+    <t>wall_high_outside_m_avg</t>
   </si>
   <si>
-    <t>Boot</t>
+    <t>wall_inner_high_m_avg</t>
   </si>
   <si>
-    <t>Wedge</t>
+    <t>wall_inner_high_ft_avg</t>
   </si>
   <si>
-    <t>two</t>
+    <t>Revised data below</t>
   </si>
   <si>
-    <t>high</t>
+    <t>Width at Ground (m)</t>
+  </si>
+  <si>
+    <t>Height to 5 cm Diameter Stem (m)</t>
+  </si>
+  <si>
+    <t>Height to Highest Branch (m)</t>
+  </si>
+  <si>
+    <t>wall_two_outside_m_avg</t>
+  </si>
+  <si>
+    <t>wall_two_outside_ft_avg</t>
+  </si>
+  <si>
+    <t>wall_high_outside_ft_avg</t>
+  </si>
+  <si>
+    <t>% Change</t>
+  </si>
+  <si>
+    <t>slump/yr (cm)</t>
   </si>
 </sst>
 </file>
@@ -86,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +230,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -403,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -533,15 +549,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -587,11 +594,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -608,14 +612,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -938,18 +948,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="10" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4" max="10" width="14.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -959,31 +970,37 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
       </c>
       <c r="B2">
         <v>2017</v>
@@ -991,31 +1008,37 @@
       <c r="C2">
         <v>73</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>6.6053917808219103</v>
       </c>
-      <c r="E2" s="1">
-        <v>6.0547945205479401</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="2">
+        <v>2.80930958904109</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4.0410356164383501</v>
+      </c>
+      <c r="G2" s="2">
         <v>3.0772273972602702</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="2">
         <v>21.671232876712299</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="2">
         <v>9.2168949771689501</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="2">
         <v>13.257990867579901</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="2">
+        <v>10.0958904109589</v>
+      </c>
+      <c r="L2" s="2">
         <v>-15.123081518729199</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2018</v>
@@ -1023,31 +1046,37 @@
       <c r="C3">
         <v>73</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>6.6158301369863004</v>
       </c>
-      <c r="E3" s="1">
-        <v>5.1780821917808204</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="2">
+        <v>2.5918438356164302</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3.4640728767123199</v>
+      </c>
+      <c r="G3" s="2">
         <v>2.45050849315068</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="2">
         <v>21.7054794520547</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="2">
         <v>8.5034246575342394</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="2">
         <v>11.3650684931506</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="2">
+        <v>8.0397260273972595</v>
+      </c>
+      <c r="L3" s="2">
         <v>-17.113617448744499</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>2019</v>
@@ -1055,31 +1084,37 @@
       <c r="C4">
         <v>73</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>6.5252252054794502</v>
       </c>
-      <c r="E4" s="1">
-        <v>4.1712328767123203</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="2">
+        <v>2.2300504109589001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3.1381873972602699</v>
+      </c>
+      <c r="G4" s="2">
         <v>2.1795287671232799</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="2">
         <v>21.408219178082099</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="2">
         <v>7.3164383561643804</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="2">
         <v>10.295890410958901</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="2">
+        <v>7.1506849315068397</v>
+      </c>
+      <c r="L4" s="2">
         <v>-15.7567967720466</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2020</v>
@@ -1087,31 +1122,37 @@
       <c r="C5">
         <v>73</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>6.2546630136986296</v>
       </c>
-      <c r="E5" s="1">
-        <v>3.5136986301369801</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="2">
+        <v>1.9903857534246501</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2.7553084931506802</v>
+      </c>
+      <c r="G5" s="2">
         <v>1.8358980821917801</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="2">
         <v>20.520547945205401</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="2">
         <v>6.5301369863013701</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="2">
         <v>9.0397260273972595</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="2">
+        <v>6.02328767123287</v>
+      </c>
+      <c r="L5" s="2">
         <v>-15.5910702198285</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2017</v>
@@ -1119,31 +1160,37 @@
       <c r="C6">
         <v>38</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>7.8245368421052603</v>
       </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="2">
+        <v>2.6116547368420999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.6379484210526298</v>
+      </c>
+      <c r="G6" s="2">
         <v>2.5502936842105202</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="2">
         <v>25.671052631578899</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I6" s="2">
         <v>8.5684210526315798</v>
       </c>
-      <c r="I6" s="10">
+      <c r="J6" s="2">
         <v>11.935526315789399</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="2">
+        <v>8.3671052631578906</v>
+      </c>
+      <c r="L6" s="2">
         <v>-12.628596139700999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>2018</v>
@@ -1151,31 +1198,37 @@
       <c r="C7">
         <v>38</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>8.0170421052631493</v>
       </c>
-      <c r="E7" s="1">
-        <v>4.5526315789473601</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="2">
+        <v>2.4728905263157799</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.2950484210526301</v>
+      </c>
+      <c r="G7" s="2">
         <v>2.2098</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="2">
         <v>26.302631578947299</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="2">
         <v>8.1131578947368403</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="2">
         <v>10.810526315789399</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="L7" s="2">
         <v>-12.0761441385234</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>2019</v>
@@ -1183,31 +1236,37 @@
       <c r="C8">
         <v>38</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>7.5438000000000001</v>
       </c>
-      <c r="E8" s="1">
-        <v>3.6842105263157801</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="2">
+        <v>2.25231157894736</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3.0062905263157802</v>
+      </c>
+      <c r="G8" s="2">
         <v>1.87692631578947</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="2">
         <v>24.75</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="2">
         <v>7.38947368421052</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="2">
         <v>9.8631578947368403</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="2">
+        <v>6.1578947368421</v>
+      </c>
+      <c r="L8" s="2">
         <v>-13.181384200218799</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2020</v>
@@ -1215,31 +1274,37 @@
       <c r="C9">
         <v>38</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>7.3111894736842098</v>
       </c>
-      <c r="E9" s="1">
-        <v>3.0394736842105199</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="2">
+        <v>2.0253157894736802</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.73517894736842</v>
+      </c>
+      <c r="G9" s="2">
         <v>1.6362947368420999</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="2">
         <v>23.986842105263101</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="2">
         <v>6.6447368421052602</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="2">
         <v>8.9736842105263097</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="2">
+        <v>5.3684210526315699</v>
+      </c>
+      <c r="L9" s="2">
         <v>-13.461235091987</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>2018</v>
@@ -1247,31 +1312,37 @@
       <c r="C10">
         <v>48</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>7.6085700000000003</v>
       </c>
-      <c r="E10" s="1">
-        <v>7.6645833333333302</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="2">
+        <v>2.7787600000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3.6969699999999999</v>
+      </c>
+      <c r="G10" s="2">
         <v>3.254375</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="2">
         <v>24.962499999999999</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="2">
         <v>9.11666666666666</v>
       </c>
-      <c r="I10" s="10">
+      <c r="J10" s="2">
         <v>12.129166666666601</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="2">
+        <v>10.6770833333333</v>
+      </c>
+      <c r="L10" s="2">
         <v>-5.9687726878063501</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>2019</v>
@@ -1279,31 +1350,37 @@
       <c r="C11">
         <v>48</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>7.1913749999999999</v>
       </c>
-      <c r="E11" s="1">
-        <v>6.5833333333333304</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="2">
+        <v>2.5666699999999998</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3.4969450000000002</v>
+      </c>
+      <c r="G11" s="2">
         <v>2.9368750000000001</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="2">
         <v>23.59375</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="2">
         <v>8.4208333333333307</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="2">
         <v>11.472916666666601</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="2">
+        <v>9.6354166666666607</v>
+      </c>
+      <c r="L11" s="2">
         <v>-7.8323698428010298</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>2020</v>
@@ -1311,31 +1388,37 @@
       <c r="C12">
         <v>48</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>6.7500499999999999</v>
       </c>
-      <c r="E12" s="1">
-        <v>5.25</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="2">
+        <v>2.1215350000000002</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2.9565600000000001</v>
+      </c>
+      <c r="G12" s="2">
         <v>2.435225</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="2">
         <v>22.1458333333333</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="2">
         <v>6.96041666666666</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="2">
+        <v>7.9895833333333304</v>
+      </c>
+      <c r="L12" s="2">
         <v>-7.7853776614915597</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>2021</v>
@@ -1343,31 +1426,37 @@
       <c r="C13">
         <v>48</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>6.2579250000000002</v>
       </c>
-      <c r="E13" s="1">
-        <v>4.4166666666666599</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" s="2">
+        <v>1.7887949999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2.5031699999999999</v>
+      </c>
+      <c r="G13" s="2">
         <v>2.060575</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="2">
         <v>20.53125</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="2">
         <v>5.8687500000000004</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="2">
         <v>8.2125000000000004</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="2">
+        <v>6.7604166666666599</v>
+      </c>
+      <c r="L13" s="2">
         <v>-7.0287965058855297</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>2018</v>
@@ -1375,31 +1464,37 @@
       <c r="C14">
         <v>30</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>6.6903600000000001</v>
       </c>
-      <c r="E14" s="1">
-        <v>7.2066666666666599</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" s="2">
+        <v>2.439416</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3.6311840000000002</v>
+      </c>
+      <c r="G14" s="2">
         <v>3.38836</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="2">
         <v>21.95</v>
       </c>
-      <c r="H14" s="10">
+      <c r="I14" s="2">
         <v>8.0033333333333303</v>
       </c>
-      <c r="I14" s="10">
+      <c r="J14" s="2">
         <v>11.9133333333333</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="2">
+        <v>11.1166666666666</v>
+      </c>
+      <c r="L14" s="2">
         <v>-3.1211200036397599</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>2019</v>
@@ -1407,31 +1502,37 @@
       <c r="C15">
         <v>30</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>6.7564000000000002</v>
       </c>
-      <c r="E15" s="1">
-        <v>6.0666666666666602</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E15" s="2">
+        <v>2.2128480000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3.2796479999999999</v>
+      </c>
+      <c r="G15" s="2">
         <v>2.9159199999999998</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="2">
         <v>22.1666666666666</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="2">
         <v>7.26</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="2">
         <v>10.76</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="2">
+        <v>9.5666666666666593</v>
+      </c>
+      <c r="L15" s="2">
         <v>-5.1554632344104103</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>2020</v>
@@ -1439,31 +1540,37 @@
       <c r="C16">
         <v>30</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>6.20268</v>
       </c>
-      <c r="E16" s="1">
-        <v>5.9666666666666597</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" s="2">
+        <v>2.1366480000000001</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2.9342079999999999</v>
+      </c>
+      <c r="G16" s="2">
         <v>2.6162000000000001</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="2">
         <v>20.350000000000001</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="2">
         <v>7.01</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="2">
         <v>9.6266666666666598</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="2">
+        <v>8.5833333333333304</v>
+      </c>
+      <c r="L16" s="2">
         <v>-5.0806251541572003</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>2021</v>
@@ -1471,25 +1578,31 @@
       <c r="C17">
         <v>30</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>5.9181999999999997</v>
       </c>
-      <c r="E17" s="1">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E17" s="2">
+        <v>1.8795999999999999</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2.5146000000000002</v>
+      </c>
+      <c r="G17" s="2">
         <v>2.1589999999999998</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="2">
         <v>19.4166666666666</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="2">
         <v>6.1666666666666599</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="2">
         <v>8.25</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="2">
+        <v>7.0833333333333304</v>
+      </c>
+      <c r="L17" s="2">
         <v>-5.8260511082061699</v>
       </c>
     </row>
@@ -1501,505 +1614,519 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A2:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="6" width="14.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="4"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="D3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C4" s="4">
+        <v>73</v>
+      </c>
+      <c r="D4" s="6">
+        <v>6.6053917808219103</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2.80930958904109</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4.0410356164383501</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3">
+        <f>((E4-E7)/3)*100</f>
+        <v>27.297461187214662</v>
+      </c>
+      <c r="J4" s="3">
+        <f>((F4-F7)/3)*100</f>
+        <v>42.857570776255663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C5" s="4">
+        <v>73</v>
+      </c>
+      <c r="D5" s="6">
+        <v>6.6158301369863004</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.5918438356164302</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3.4640728767123199</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2019</v>
+      </c>
+      <c r="C6" s="4">
+        <v>73</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6.5252252054794502</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2.2300504109589001</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3.1381873972602699</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="4">
+        <v>73</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6.2546630136986296</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.9903857534246501</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2.7553084931506802</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6">
+        <f>(E7-E4) / E4 * 100</f>
+        <v>-29.15035917760725</v>
+      </c>
+      <c r="F8" s="6">
+        <f>(F7-F4) / F4 * 100</f>
+        <v>-31.816772860340979</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C9" s="4">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6">
+        <v>7.8245368421052603</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.6116547368420999</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3.6379484210526298</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3">
+        <f>((E9-E12)/3)*100</f>
+        <v>19.544631578947325</v>
+      </c>
+      <c r="J9" s="3">
+        <f>((F9-F12)/3)*100</f>
+        <v>30.092315789473663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="4">
+        <v>38</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8.0170421052631493</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2.4728905263157799</v>
+      </c>
+      <c r="F10" s="6">
+        <v>3.2950484210526301</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2019</v>
+      </c>
+      <c r="C11" s="4">
+        <v>38</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7.5438000000000001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.25231157894736</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3.0062905263157802</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="4">
+        <v>38</v>
+      </c>
+      <c r="D12" s="6">
+        <v>7.3111894736842098</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2.0253157894736802</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2.73517894736842</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="6">
+        <f>(E12-E9) / E9 * 100</f>
+        <v>-22.450859950859947</v>
+      </c>
+      <c r="F13" s="6">
+        <f>(F12-F9) / F9 * 100</f>
+        <v>-24.815345606879056</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C14" s="4">
+        <v>48</v>
+      </c>
+      <c r="D14" s="6">
+        <v>7.6085700000000003</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2.7787600000000001</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3.6969699999999999</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3">
+        <f>((E14-E17)/3)*100</f>
+        <v>32.998833333333337</v>
+      </c>
+      <c r="J14" s="3">
+        <f>((F14-F17)/3)*100</f>
+        <v>39.793333333333329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2019</v>
+      </c>
+      <c r="C15" s="4">
+        <v>48</v>
+      </c>
+      <c r="D15" s="6">
+        <v>7.1913749999999999</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.5666699999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3.4969450000000002</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C16" s="4">
+        <v>48</v>
+      </c>
+      <c r="D16" s="6">
+        <v>6.7500499999999999</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2.1215350000000002</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2.9565600000000001</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="4">
+        <v>48</v>
+      </c>
+      <c r="D17" s="6">
+        <v>6.2579250000000002</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1.7887949999999999</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2.5031699999999999</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="6">
+        <f>(E17-E14) / E14 * 100</f>
+        <v>-35.626142595978067</v>
+      </c>
+      <c r="F18" s="6">
+        <f>(F17-F14) / F14 * 100</f>
+        <v>-32.291308828581244</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5">
-        <v>2017</v>
-      </c>
-      <c r="C2" s="6">
-        <v>73</v>
-      </c>
-      <c r="D2" s="7">
-        <v>6.6053917808219103</v>
-      </c>
-      <c r="E2" s="7">
-        <v>6.0547945205479401</v>
-      </c>
-      <c r="F2" s="7">
-        <v>3.0772273972602702</v>
-      </c>
-      <c r="G2" s="8">
-        <v>-15.123081518729199</v>
-      </c>
-      <c r="I2" s="4">
-        <f>((E2-E5)/3)*100</f>
-        <v>84.703196347031991</v>
-      </c>
-      <c r="J2" s="4">
-        <f>((F2-F5)/3)*100</f>
-        <v>41.377643835616333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="B19" s="4">
         <v>2018</v>
       </c>
-      <c r="C3" s="6">
-        <v>73</v>
-      </c>
-      <c r="D3" s="7">
-        <v>6.6158301369863004</v>
-      </c>
-      <c r="E3" s="7">
-        <v>5.1780821917808204</v>
-      </c>
-      <c r="F3" s="7">
-        <v>2.45050849315068</v>
-      </c>
-      <c r="G3" s="8">
-        <v>-17.113617448744499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="C19" s="4">
+        <v>30</v>
+      </c>
+      <c r="D19" s="6">
+        <v>6.6903600000000001</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2.439416</v>
+      </c>
+      <c r="F19" s="6">
+        <v>3.6311840000000002</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3">
+        <f>((E19-E22)/3)*100</f>
+        <v>18.660533333333337</v>
+      </c>
+      <c r="J19" s="3">
+        <f>((F19-F22)/3)*100</f>
+        <v>37.219466666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4">
         <v>2019</v>
       </c>
-      <c r="C4" s="6">
-        <v>73</v>
-      </c>
-      <c r="D4" s="7">
-        <v>6.5252252054794502</v>
-      </c>
-      <c r="E4" s="7">
-        <v>4.1712328767123203</v>
-      </c>
-      <c r="F4" s="7">
-        <v>2.1795287671232799</v>
-      </c>
-      <c r="G4" s="8">
-        <v>-15.7567967720466</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="C20" s="4">
+        <v>30</v>
+      </c>
+      <c r="D20" s="6">
+        <v>6.7564000000000002</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2.2128480000000001</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3.2796479999999999</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4">
         <v>2020</v>
       </c>
-      <c r="C5" s="6">
-        <v>73</v>
-      </c>
-      <c r="D5" s="7">
-        <v>6.2546630136986296</v>
-      </c>
-      <c r="E5" s="7">
-        <v>3.5136986301369801</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1.8358980821917801</v>
-      </c>
-      <c r="G5" s="8">
-        <v>-15.5910702198285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
-        <f>(E5-E2) / E2 * 100</f>
-        <v>-41.968325791855257</v>
-      </c>
-      <c r="F6" s="7">
-        <f>(F5-F2) / F2 * 100</f>
-        <v>-40.33921302578014</v>
-      </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2017</v>
-      </c>
-      <c r="C7" s="6">
-        <v>38</v>
-      </c>
-      <c r="D7" s="7">
-        <v>7.8245368421052603</v>
-      </c>
-      <c r="E7" s="7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2.5502936842105202</v>
-      </c>
-      <c r="G7" s="8">
-        <v>-12.628596139700999</v>
-      </c>
-      <c r="I7" s="4">
-        <f>((E7-E10)/3)*100</f>
-        <v>65.350877192982665</v>
-      </c>
-      <c r="J7" s="4">
-        <f>((F7-F10)/3)*100</f>
-        <v>30.466631578947339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C8" s="6">
-        <v>38</v>
-      </c>
-      <c r="D8" s="7">
-        <v>8.0170421052631493</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.5526315789473601</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2.2098</v>
-      </c>
-      <c r="G8" s="8">
-        <v>-12.0761441385234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2019</v>
-      </c>
-      <c r="C9" s="6">
-        <v>38</v>
-      </c>
-      <c r="D9" s="7">
-        <v>7.5438000000000001</v>
-      </c>
-      <c r="E9" s="7">
-        <v>3.6842105263157801</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1.87692631578947</v>
-      </c>
-      <c r="G9" s="8">
-        <v>-13.181384200218799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="6">
-        <v>38</v>
-      </c>
-      <c r="D10" s="7">
-        <v>7.3111894736842098</v>
-      </c>
-      <c r="E10" s="7">
-        <v>3.0394736842105199</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1.6362947368420999</v>
-      </c>
-      <c r="G10" s="8">
-        <v>-13.461235091987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7">
-        <f>(E10-E7) / E7 * 100</f>
-        <v>-39.2105263157896</v>
-      </c>
-      <c r="F11" s="7">
-        <f>(F10-F7) / F7 * 100</f>
-        <v>-35.838968391256543</v>
-      </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C12" s="6">
-        <v>48</v>
-      </c>
-      <c r="D12" s="7">
-        <v>7.6085700000000003</v>
-      </c>
-      <c r="E12" s="7">
-        <v>7.6645833333333302</v>
-      </c>
-      <c r="F12" s="7">
-        <v>3.254375</v>
-      </c>
-      <c r="G12" s="8">
-        <v>-5.9687726878063501</v>
-      </c>
-      <c r="I12" s="4">
-        <f>((E12-E15)/3)*100</f>
-        <v>108.263888888889</v>
-      </c>
-      <c r="J12" s="4">
-        <f>((F12-F15)/3)*100</f>
-        <v>39.793333333333329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2019</v>
-      </c>
-      <c r="C13" s="6">
-        <v>48</v>
-      </c>
-      <c r="D13" s="7">
-        <v>7.1913749999999999</v>
-      </c>
-      <c r="E13" s="7">
-        <v>6.5833333333333304</v>
-      </c>
-      <c r="F13" s="7">
-        <v>2.9368750000000001</v>
-      </c>
-      <c r="G13" s="8">
-        <v>-7.8323698428010298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2020</v>
-      </c>
-      <c r="C14" s="6">
-        <v>48</v>
-      </c>
-      <c r="D14" s="7">
-        <v>6.7500499999999999</v>
-      </c>
-      <c r="E14" s="7">
-        <v>5.25</v>
-      </c>
-      <c r="F14" s="7">
-        <v>2.435225</v>
-      </c>
-      <c r="G14" s="8">
-        <v>-7.7853776614915597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="C21" s="4">
+        <v>30</v>
+      </c>
+      <c r="D21" s="6">
+        <v>6.20268</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.1366480000000001</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2.9342079999999999</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4">
         <v>2021</v>
       </c>
-      <c r="C15" s="6">
-        <v>48</v>
-      </c>
-      <c r="D15" s="7">
-        <v>6.2579250000000002</v>
-      </c>
-      <c r="E15" s="7">
-        <v>4.4166666666666599</v>
-      </c>
-      <c r="F15" s="7">
-        <v>2.060575</v>
-      </c>
-      <c r="G15" s="8">
-        <v>-7.0287965058855297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7">
-        <f>(E15-E12) / E12 * 100</f>
-        <v>-42.375645555857631</v>
-      </c>
-      <c r="F16" s="7">
-        <f>(F15-F12) / F12 * 100</f>
-        <v>-36.68292682926829</v>
-      </c>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="C22" s="4">
         <v>30</v>
       </c>
-      <c r="D17" s="7">
-        <v>6.6903600000000001</v>
-      </c>
-      <c r="E17" s="7">
-        <v>7.2066666666666599</v>
-      </c>
-      <c r="F17" s="7">
-        <v>3.38836</v>
-      </c>
-      <c r="G17" s="8">
-        <v>-3.1211200036397599</v>
-      </c>
-      <c r="I17" s="4">
-        <f>((E17-E20)/3)*100</f>
-        <v>73.55555555555533</v>
-      </c>
-      <c r="J17" s="4">
-        <f>((F17-F20)/3)*100</f>
-        <v>40.978666666666676</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5">
-        <v>2019</v>
-      </c>
-      <c r="C18" s="6">
-        <v>30</v>
-      </c>
-      <c r="D18" s="7">
-        <v>6.7564000000000002</v>
-      </c>
-      <c r="E18" s="7">
-        <v>6.0666666666666602</v>
-      </c>
-      <c r="F18" s="7">
-        <v>2.9159199999999998</v>
-      </c>
-      <c r="G18" s="8">
-        <v>-5.1554632344104103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5">
-        <v>2020</v>
-      </c>
-      <c r="C19" s="6">
-        <v>30</v>
-      </c>
-      <c r="D19" s="7">
-        <v>6.20268</v>
-      </c>
-      <c r="E19" s="7">
-        <v>5.9666666666666597</v>
-      </c>
-      <c r="F19" s="7">
-        <v>2.6162000000000001</v>
-      </c>
-      <c r="G19" s="8">
-        <v>-5.0806251541572003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5">
-        <v>2021</v>
-      </c>
-      <c r="C20" s="6">
-        <v>30</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="D22" s="6">
         <v>5.9181999999999997</v>
       </c>
-      <c r="E20" s="7">
-        <v>5</v>
-      </c>
-      <c r="F20" s="7">
-        <v>2.1589999999999998</v>
-      </c>
-      <c r="G20" s="8">
-        <v>-5.8260511082061699</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E21" s="3">
-        <f>(E20-E17) / E17 * 100</f>
-        <v>-30.619796484736288</v>
-      </c>
-      <c r="F21" s="3">
-        <f>(F20-F17) / F17 * 100</f>
-        <v>-36.281859070464776</v>
+      <c r="E22" s="6">
+        <v>1.8795999999999999</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2.5146000000000002</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6">
+        <f>(E22-E19) / E19 * 100</f>
+        <v>-22.948771345272807</v>
+      </c>
+      <c r="F23" s="6">
+        <f>(F22-F19) / F19 * 100</f>
+        <v>-30.749860100727478</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>